--- a/biology/Mycologie/Antrodia/Antrodia.xlsx
+++ b/biology/Mycologie/Antrodia/Antrodia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Antrodia est un genre de fonge de la famille des Fomitopsidaceae. Les espèces d'Antrodia ont des corps fruitiers qui resupinent généralement (c'est-à-dire couchés ou étalés sur la surface de croissance), avec un hyménium exposé vers l'extérieur ; les bords peuvent être tournés de manière à former polypores. La plupart des espèces se trouvent dans les forêts tempérées et boréales et provoquent la «pourriture brune».
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les antrodiæ s'étendent sur leur surface de croissance avec l'hyménium exposé sur l'extérieur ; ses bords sont retournés pour former des «crochets» (de forme : [ ]). Lorsqu'ils sont présents, ces crochets sont généralement blancs ou brun pâle.
 La trame à la surface de l'hyménium peut être ronde ou anguleuse ; blanche ou pâle. Toutes les espèces provoquent la «pourriture brune».
@@ -544,7 +558,9 @@
           <t>Phylogénie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Afin d'identifier de manière fiable les différentes espèces et souches d'Antrodia médicinales, des marqueurs génétiques ont été développés et des analyses phylogénétiques effectuées. Ces analyses ont démontré qu'il existe trois lignées phylogénétiques distinctes au sein du genre Antrodia.
 </t>
@@ -575,7 +591,9 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">La définition moderne du genre suit la description donnée par Gilbertson et Ryvarden (1986), dans leur monographie : North American Polypores.
 </t>
@@ -606,7 +624,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">En Europe, environ vingt-neuf espèces sont connues ; vingt-et-une espèces en Amérique du Nord, et dix-huit espèces en Asie de l'Est, bien que de nouvelles espèces aient été signalées depuis ces publications.
 </t>
@@ -637,15 +657,17 @@
           <t>Espèces</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Il existe environ 50 espèces dans ce genre :
 Antrodia albida
 Antrodia albidoides
 Antrodia albobrunnea
 Antrodia alpina
-Antrodia aurantia[1]
-Antrodia bambusicola – Chine[2]
+Antrodia aurantia
+Antrodia bambusicola – Chine
 Antrodia calceus
 Antrodia carbonica
 Antrodia cinnamomea
@@ -659,19 +681,19 @@
 Antrodia hingganensis
 Antrodia hippophaes
 Antrodia huangshanensis
-Antrodia hyalina – Russie[3]
-Antrodia infirma – Europe[4]
+Antrodia hyalina – Russie
+Antrodia infirma – Europe
 Antrodia juniperina
-Antrodia lalashana[5]
-Antrodia leucaena –Chine, Europe[6]
+Antrodia lalashana
+Antrodia leucaena –Chine, Europe
 Antrodia macra
 Antrodia macrospora
-Antrodia madronae – Etats-Unis (Ouest)[7]
+Antrodia madronae – Etats-Unis (Ouest)
 Antrodia malicola
 Antrodia mellita
 Antrodia minuta
-Antrodia monomitica – Chine[8]
-Antrodia multiformis – Etats-Unis[9]
+Antrodia monomitica – Chine
+Antrodia multiformis – Etats-Unis
 Antrodia multipapillata
 Antrodia novae-zelandiae
 Antrodia oleracea
@@ -698,10 +720,10 @@
 Antrodia subramentacea
 Antrodia subxantha
 Antrodia taxa
-Antrodia tenerifensis – Tenerife[9]
+Antrodia tenerifensis – Tenerife
 Antrodia terryi
-Antrodia tropica – Chine[10]
-Antrodia uzbekistanica – Ouzbékistan[11]
+Antrodia tropica – Chine
+Antrodia uzbekistanica – Ouzbékistan
 Antrodia variiformis
 Antrodia wangii
 Antrodia xantha
